--- a/attendance/December 2024/CSE101/attendance.xlsx
+++ b/attendance/December 2024/CSE101/attendance.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tue 03-12-24" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,11 +437,16 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="16.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/attendance/December 2024/CSE101/attendance.xlsx
+++ b/attendance/December 2024/CSE101/attendance.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Tue 03-12-24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Wed 04-12-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wed 04-12-24 2nd" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +31,9 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -38,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,13 +66,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -557,4 +571,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>University Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Attendance Status</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sandipan Sasmal</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-12-04 02:59:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apratim Halder</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-12-04 02:59:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kasturi Burman</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>124</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rebanta Biswas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>98</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>University Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Attendance Status</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apratim Halder</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sandipan Sasmal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>111</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kasturi Burman</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>124</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rebanta Biswas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>98</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/attendance/December 2024/CSE101/attendance.xlsx
+++ b/attendance/December 2024/CSE101/attendance.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Tue 03-12-24" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Wed 04-12-24" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Wed 04-12-24 2nd" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Wed 04-12-24 3nd" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -817,4 +818,127 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>University Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Attendance Status</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sandipan Sasmal</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-12-04 17:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apratim Halder</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>110</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kasturi Burman</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>124</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rebanta Biswas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>98</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>